--- a/Assignment 2/CG - Homework 2 - 3D Cube Csharp - Evaluation form.xlsx
+++ b/Assignment 2/CG - Homework 2 - 3D Cube Csharp - Evaluation form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\kill-your-neighbourhood\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18DB456-FD86-414B-BA87-8455C22C81F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DC9205-5BB1-4A55-94A3-36B7D6353644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Knock-out criteria</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>There are unit-tests to test the Vectors and Matrix functions.</t>
+  </si>
+  <si>
+    <t>You can change the color if you press [ and ].</t>
   </si>
 </sst>
 </file>
@@ -948,7 +951,7 @@
   <dimension ref="A2:I32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1208,7 +1211,9 @@
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="10"/>
-      <c r="G30" s="20"/>
+      <c r="G30" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="I30" s="17" t="s">
         <v>30</v>
       </c>
@@ -1242,6 +1247,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="250432fd046aabec56a216ed70dde643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b5b841223ae0e17bccbe097560b89c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1481,33 +1512,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704D0896-41A1-4D8E-B2B4-DAF4537F2CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F6E415A-D81B-4665-9E48-B27FE2D284F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1525,30 +1556,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704D0896-41A1-4D8E-B2B4-DAF4537F2CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>